--- a/Input/Orient_basic/rateSheet.xlsx
+++ b/Input/Orient_basic/rateSheet.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">married</t>
   </si>
   <si>
-    <t xml:space="preserve">relation</t>
+    <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">NEMED</t>
@@ -116,6 +116,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -137,13 +138,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,11 +204,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,16 +237,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -305,7 +309,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>432.74</v>
+        <v>375.133333333333</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
@@ -319,6 +323,7 @@
       <c r="L2" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -340,7 +345,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>509.1</v>
+        <v>447.857142857143</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
@@ -354,6 +359,7 @@
       <c r="L3" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -375,7 +381,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>682.2</v>
+        <v>612.714285714286</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
@@ -389,6 +395,7 @@
       <c r="L4" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -410,7 +417,7 @@
         <v>60</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>840.01</v>
+        <v>763.009523809524</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
@@ -424,6 +431,7 @@
       <c r="L5" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -445,7 +453,7 @@
         <v>99</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1170.92</v>
+        <v>1078.1619047619</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
@@ -459,6 +467,7 @@
       <c r="L6" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -480,7 +489,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>432.74</v>
+        <v>375.133333333333</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
@@ -497,6 +506,7 @@
       <c r="L7" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -518,7 +528,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>509.1</v>
+        <v>447.857142857143</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
@@ -535,6 +545,7 @@
       <c r="L8" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -556,7 +567,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>682.2</v>
+        <v>612.714285714286</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
@@ -573,6 +584,7 @@
       <c r="L9" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -594,7 +606,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>840.01</v>
+        <v>763.009523809524</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>16</v>
@@ -611,6 +623,7 @@
       <c r="L10" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -632,7 +645,7 @@
         <v>99</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1170.92</v>
+        <v>1078.1619047619</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>16</v>
@@ -649,6 +662,7 @@
       <c r="L11" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -670,7 +684,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>509.1</v>
+        <v>447.857142857143</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>16</v>
@@ -687,6 +701,7 @@
       <c r="L12" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -708,7 +723,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>682.2</v>
+        <v>612.714285714286</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>16</v>
@@ -725,6 +740,7 @@
       <c r="L13" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -746,7 +762,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>840.01</v>
+        <v>763.009523809524</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -763,6 +779,7 @@
       <c r="L14" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -784,7 +801,7 @@
         <v>99</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1170.92</v>
+        <v>1078.1619047619</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
@@ -801,6 +818,7 @@
       <c r="L15" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -822,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>432.74</v>
+        <v>375.133333333333</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>16</v>
@@ -836,6 +854,7 @@
       <c r="L16" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -857,7 +876,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>509.1</v>
+        <v>447.857142857143</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>16</v>
@@ -871,6 +890,7 @@
       <c r="L17" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -892,7 +912,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>682.2</v>
+        <v>612.714285714286</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>16</v>
@@ -906,6 +926,7 @@
       <c r="L18" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -927,7 +948,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>840.01</v>
+        <v>763.009523809524</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>16</v>
@@ -941,6 +962,7 @@
       <c r="L19" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -962,7 +984,7 @@
         <v>99</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1170.92</v>
+        <v>1078.1619047619</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>16</v>
@@ -976,6 +998,7 @@
       <c r="L20" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -997,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>432.74</v>
+        <v>375.133333333333</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1014,6 +1037,7 @@
       <c r="L21" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -1035,7 +1059,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>509.1</v>
+        <v>447.857142857143</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
@@ -1052,6 +1076,7 @@
       <c r="L22" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1073,7 +1098,7 @@
         <v>45</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>682.2</v>
+        <v>612.714285714286</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>16</v>
@@ -1090,6 +1115,7 @@
       <c r="L23" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -1111,7 +1137,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>840.01</v>
+        <v>763.009523809524</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>16</v>
@@ -1128,6 +1154,7 @@
       <c r="L24" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -1149,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1170.92</v>
+        <v>1078.1619047619</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>16</v>
@@ -1166,6 +1193,7 @@
       <c r="L25" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -1187,7 +1215,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>509.1</v>
+        <v>447.857142857143</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>16</v>
@@ -1204,6 +1232,7 @@
       <c r="L26" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -1225,7 +1254,7 @@
         <v>45</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>682.2</v>
+        <v>612.714285714286</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>16</v>
@@ -1242,6 +1271,7 @@
       <c r="L27" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -1263,7 +1293,7 @@
         <v>60</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>840.01</v>
+        <v>763.009523809524</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>16</v>
@@ -1280,6 +1310,7 @@
       <c r="L28" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -1301,7 +1332,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1170.92</v>
+        <v>1078.1619047619</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>16</v>
@@ -1318,6 +1349,7 @@
       <c r="L29" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -1329,33 +1361,34 @@
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="4" t="n">
+      <c r="D30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="5" t="n">
         <v>99</v>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>4200</v>
+      <c r="G30" s="5" t="n">
+        <v>3963</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="4" t="n">
+      <c r="I30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="M30" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Input/Orient_basic/rateSheet.xlsx
+++ b/Input/Orient_basic/rateSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="23">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -80,18 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Nextcare PCP IP- Nextcare RN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Nextcare PCP IP- Nextcare RN5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Nextcare PCP IP- Nextcare RN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Nextcare PCP IP- Nextcare RN7</t>
   </si>
   <si>
     <t xml:space="preserve">female</t>
@@ -111,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,11 +127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,43 +195,37 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,7 +286,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>375.133333333333</v>
+        <v>391.828571428571</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
@@ -330,7 +307,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -345,7 +322,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>447.857142857143</v>
+        <v>456.685714285714</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
@@ -366,7 +343,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -381,7 +358,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>612.714285714286</v>
+        <v>603.904761904762</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
@@ -402,7 +379,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -417,7 +394,7 @@
         <v>60</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>763.009523809524</v>
+        <v>738</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
@@ -438,7 +415,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -453,7 +430,7 @@
         <v>99</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1078.1619047619</v>
+        <v>1019.28571428571</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
@@ -480,7 +457,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -489,7 +466,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>375.133333333333</v>
+        <v>391.828571428571</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
@@ -513,13 +490,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>18</v>
@@ -528,7 +505,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>447.857142857143</v>
+        <v>456.685714285714</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
@@ -552,13 +529,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>36</v>
@@ -567,7 +544,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>612.714285714286</v>
+        <v>603.904761904762</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
@@ -591,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>46</v>
@@ -606,7 +583,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>763.009523809524</v>
+        <v>738</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>16</v>
@@ -630,13 +607,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>61</v>
@@ -645,7 +622,7 @@
         <v>99</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1078.1619047619</v>
+        <v>1019.28571428571</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>16</v>
@@ -669,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>18</v>
@@ -684,7 +661,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>447.857142857143</v>
+        <v>456.685714285714</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>16</v>
@@ -708,13 +685,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>36</v>
@@ -723,7 +700,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>612.714285714286</v>
+        <v>603.904761904762</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>16</v>
@@ -747,13 +724,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>46</v>
@@ -762,7 +739,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>763.009523809524</v>
+        <v>738</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -786,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>61</v>
@@ -801,7 +778,7 @@
         <v>99</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1078.1619047619</v>
+        <v>1019.28571428571</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
@@ -840,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>375.133333333333</v>
+        <v>391.828571428571</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>16</v>
@@ -852,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M16" s="4"/>
     </row>
@@ -861,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -876,7 +853,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>447.857142857143</v>
+        <v>456.685714285714</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>16</v>
@@ -888,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M17" s="4"/>
     </row>
@@ -897,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -912,7 +889,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>612.714285714286</v>
+        <v>603.904761904762</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>16</v>
@@ -924,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M18" s="4"/>
     </row>
@@ -933,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -948,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>763.009523809524</v>
+        <v>738</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>16</v>
@@ -960,7 +937,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M19" s="4"/>
     </row>
@@ -969,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -984,7 +961,7 @@
         <v>99</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1078.1619047619</v>
+        <v>1019.28571428571</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>16</v>
@@ -996,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -1011,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -1020,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>375.133333333333</v>
+        <v>391.828571428571</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1035,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M21" s="4"/>
     </row>
@@ -1044,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>18</v>
@@ -1059,7 +1036,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>447.857142857143</v>
+        <v>456.685714285714</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
@@ -1074,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M22" s="4"/>
     </row>
@@ -1083,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>36</v>
@@ -1098,7 +1075,7 @@
         <v>45</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>612.714285714286</v>
+        <v>603.904761904762</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>16</v>
@@ -1113,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M23" s="4"/>
     </row>
@@ -1122,13 +1099,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>46</v>
@@ -1137,7 +1114,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>763.009523809524</v>
+        <v>738</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>16</v>
@@ -1152,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M24" s="4"/>
     </row>
@@ -1161,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>61</v>
@@ -1176,7 +1153,7 @@
         <v>99</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1078.1619047619</v>
+        <v>1019.28571428571</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>16</v>
@@ -1191,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M25" s="4"/>
     </row>
@@ -1200,13 +1177,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>18</v>
@@ -1215,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>447.857142857143</v>
+        <v>456.685714285714</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>16</v>
@@ -1230,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M26" s="4"/>
     </row>
@@ -1239,13 +1216,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>36</v>
@@ -1254,7 +1231,7 @@
         <v>45</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>612.714285714286</v>
+        <v>603.904761904762</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>16</v>
@@ -1269,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M27" s="4"/>
     </row>
@@ -1278,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>46</v>
@@ -1293,7 +1270,7 @@
         <v>60</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>763.009523809524</v>
+        <v>738</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>16</v>
@@ -1308,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M28" s="4"/>
     </row>
@@ -1317,13 +1294,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>61</v>
@@ -1332,7 +1309,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1078.1619047619</v>
+        <v>1019.28571428571</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>16</v>
@@ -1347,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M29" s="4"/>
     </row>
@@ -1356,37 +1333,37 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="5" t="n">
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="G30" s="5" t="n">
-        <v>3963</v>
+      <c r="G30" s="0" t="n">
+        <v>3594</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="5" t="n">
+      <c r="I30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>26</v>
+      <c r="L30" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="M30" s="4"/>
     </row>
